--- a/biology/Zoologie/Cardiolpium/Cardiolpium.xlsx
+++ b/biology/Zoologie/Cardiolpium/Cardiolpium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cardiolpium est un genre de pseudoscorpions de la famille des Hesperolpiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Europe du Sud, au Moyen-Orient, en Asie centrale[1] et en Chine.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Europe du Sud, au Moyen-Orient, en Asie centrale et en Chine.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Pseudoscorpions of the World (version 3.0)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Pseudoscorpions of the World (version 3.0) :
 Cardiolpium aeginense (Beier, 1966)
 Cardiolpium stupidum (Beier, 1963)
 et décrites ou placées depuis :
@@ -578,7 +594,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Mahnert, 1986 : Une nouvelle espèce du genre Tyrannochthonius Chamb. des îles Canaries, avec remarques sur les genres Apolpiolum Beier et Calocheirus Chamberlin (Arachnida, Pseudoscorpiones). Mémoires de la Société Royale Entomologique de Belgique, vol. 33, p. 143-153 (texte intégral).</t>
         </is>
